--- a/sks-kobe-t/pdf/report13.xlsx
+++ b/sks-kobe-t/pdf/report13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997A7C54-2777-4002-9B13-6689B6D6156F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEDCF0-E4BA-44D7-8887-54FF75C7D540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,36 +368,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>自) 令和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <t>至) 令和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>勤　務　員</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
@@ -428,6 +398,14 @@
   </si>
   <si>
     <t>（備考）</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自) </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">至) </t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1144,6 +1122,114 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1189,84 +1275,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,36 +1300,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1606,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,93 +1606,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:16" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="68"/>
+      <c r="P5" s="59"/>
     </row>
     <row r="6" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18" t="s">
@@ -1740,13 +1718,13 @@
       <c r="M6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="79"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
@@ -1772,333 +1750,333 @@
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="81"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" spans="1:16" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="83"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="38"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="74"/>
       <c r="G24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="80"/>
     </row>
     <row r="25" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -2107,44 +2085,44 @@
       <c r="B25" s="8">
         <v>2</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+        <v>28</v>
+      </c>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
     </row>
     <row r="26" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="72"/>
+        <v>29</v>
+      </c>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="82"/>
     </row>
     <row r="27" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -2153,40 +2131,40 @@
       <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
+        <v>30</v>
+      </c>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="82"/>
     </row>
     <row r="28" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
@@ -2207,34 +2185,43 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E24:F28"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P28"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
     <mergeCell ref="B22:P22"/>
     <mergeCell ref="B23:P23"/>
     <mergeCell ref="A1:P1"/>
@@ -2251,22 +2238,13 @@
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E24:F28"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P28"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.4" header="0.3" footer="0.3"/>
